--- a/VersionRecords/Version 5.3.5.1 20170323/版本Bug和特性计划及评审表v5.3.5.1_捷豹.xlsx
+++ b/VersionRecords/Version 5.3.5.1 20170323/版本Bug和特性计划及评审表v5.3.5.1_捷豹.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="99">
   <si>
     <t>No</t>
   </si>
@@ -395,14 +395,11 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>陈美</t>
-    <rPh sb="0" eb="1">
-      <t>c'm</t>
-    </rPh>
+    <t>TP-339</t>
+  </si>
+  <si>
+    <t>线上账号，之前的普通租约，在租约列表中无法点击，提示系统繁忙</t>
     <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>TP-339</t>
   </si>
 </sst>
 </file>
@@ -861,7 +858,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -891,6 +888,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1307,7 +1316,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="37">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="11"/>
     <cellStyle name="常规 2 2" xfId="6"/>
@@ -1341,6 +1350,10 @@
     <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1701,8 +1714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1857,7 +1870,7 @@
         <v>72</v>
       </c>
       <c r="S2" s="76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T2" s="64"/>
       <c r="U2" s="52"/>
@@ -1921,7 +1934,9 @@
         <v>72</v>
       </c>
       <c r="S3" s="76"/>
-      <c r="T3" s="52"/>
+      <c r="T3" s="52">
+        <v>10043</v>
+      </c>
       <c r="U3" s="52"/>
       <c r="V3" s="63" t="s">
         <v>71</v>
@@ -1971,7 +1986,7 @@
         <v>73</v>
       </c>
       <c r="O4" s="54" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="P4" s="58" t="s">
         <v>70</v>
@@ -1993,29 +2008,67 @@
       <c r="W4" s="70"/>
       <c r="X4" s="69"/>
     </row>
-    <row r="5" spans="1:24" s="42" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="55"/>
+    <row r="5" spans="1:24" s="42" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="A5" s="47">
+        <v>4</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="55">
+        <v>42817</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="55">
+        <v>42817</v>
+      </c>
       <c r="K5" s="54"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
+      <c r="L5" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="M5" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="P5" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="55">
+        <v>42817</v>
+      </c>
+      <c r="R5" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="S5" s="64"/>
+      <c r="T5" s="52">
+        <v>10044</v>
+      </c>
       <c r="U5" s="52"/>
-      <c r="V5" s="63"/>
+      <c r="V5" s="116" t="s">
+        <v>71</v>
+      </c>
       <c r="W5" s="70"/>
       <c r="X5" s="69"/>
     </row>
@@ -5988,7 +6041,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576 V1:V3 V5:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 V1:V3 I1:I1048576 V6:V1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>

--- a/VersionRecords/Version 5.3.5.1 20170323/版本Bug和特性计划及评审表v5.3.5.1_捷豹.xlsx
+++ b/VersionRecords/Version 5.3.5.1 20170323/版本Bug和特性计划及评审表v5.3.5.1_捷豹.xlsx
@@ -858,7 +858,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -888,6 +888,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1285,6 +1288,9 @@
     <xf numFmtId="0" fontId="26" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1312,11 +1318,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="38">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="11"/>
     <cellStyle name="常规 2 2" xfId="6"/>
@@ -1354,6 +1357,7 @@
     <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1714,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2002,7 +2006,7 @@
         <v>9996</v>
       </c>
       <c r="U4" s="52"/>
-      <c r="V4" s="116" t="s">
+      <c r="V4" s="107" t="s">
         <v>71</v>
       </c>
       <c r="W4" s="70"/>
@@ -2041,7 +2045,7 @@
       </c>
       <c r="K5" s="54"/>
       <c r="L5" s="75" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M5" s="54" t="s">
         <v>76</v>
@@ -2066,7 +2070,7 @@
         <v>10044</v>
       </c>
       <c r="U5" s="52"/>
-      <c r="V5" s="116" t="s">
+      <c r="V5" s="107" t="s">
         <v>71</v>
       </c>
       <c r="W5" s="70"/>
@@ -6222,19 +6226,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
@@ -6272,8 +6276,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="109"/>
-      <c r="B3" s="109"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="110"/>
       <c r="C3" s="16"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -6285,8 +6289,8 @@
       <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="110"/>
-      <c r="B4" s="111"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="112"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -6298,8 +6302,8 @@
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="109"/>
-      <c r="B5" s="109"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="110"/>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -6311,8 +6315,8 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="111"/>
-      <c r="B6" s="111"/>
+      <c r="A6" s="112"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -6324,8 +6328,8 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="111"/>
-      <c r="B7" s="111"/>
+      <c r="A7" s="112"/>
+      <c r="B7" s="112"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -6337,8 +6341,8 @@
       <c r="K7" s="24"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="111"/>
-      <c r="B8" s="111"/>
+      <c r="A8" s="112"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -6350,8 +6354,8 @@
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="111"/>
-      <c r="B9" s="111"/>
+      <c r="A9" s="112"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -6363,8 +6367,8 @@
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="110"/>
-      <c r="B10" s="110"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -6425,36 +6429,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="113"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="114"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="115"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="116"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6747,34 +6751,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="112"/>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="113"/>
+      <c r="A1" s="113"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="114"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="115"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="116"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8"/>
@@ -7034,34 +7038,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="112"/>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="113"/>
+      <c r="A1" s="113"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="114"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="115"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="116"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8"/>
@@ -7323,34 +7327,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="112"/>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="113"/>
+      <c r="A1" s="113"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="114"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="115"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="116"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8"/>
